--- a/Testdata/LineOfTherapyPage_Data_Staging.xlsx
+++ b/Testdata/LineOfTherapyPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040624A-E2EA-481D-91BC-3A326B46CF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831BD33D-E059-4D85-B54E-8DD92D44CB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Test dataset - LineofTherapy_2.xlsx</t>
+  </si>
+  <si>
+    <t>error_msg_col1</t>
+  </si>
+  <si>
+    <t>error_msg_col2</t>
+  </si>
+  <si>
+    <t>Line of Therapy 'Automation_1' is not supported</t>
+  </si>
+  <si>
+    <t>Line of Therapy 'Automation_2' is not supported</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,13 +462,13 @@
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -467,19 +479,25 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -490,68 +508,80 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="G4">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Testdata/LineOfTherapyPage_Data_Staging.xlsx
+++ b/Testdata/LineOfTherapyPage_Data_Staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831BD33D-E059-4D85-B54E-8DD92D44CB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C615B9-BE9D-442C-95E2-25AC7E8C3366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Manage Line of Therapy</t>
   </si>
   <si>
-    <t>Test - Test - 10/30/2020</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\LineOfTherapy\Staging_Env\Test dataset - LineofTherapy_1.xlsx</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Line of Therapy 'Automation_2' is not supported</t>
+  </si>
+  <si>
+    <t>Test - Test</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -508,19 +508,19 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2">
         <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -542,19 +542,19 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>

--- a/Testdata/LineOfTherapyPage_Data_Staging.xlsx
+++ b/Testdata/LineOfTherapyPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C615B9-BE9D-442C-95E2-25AC7E8C3366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA2C809-BE47-4389-9879-2742B5ABBBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,13 +118,13 @@
     <t>error_msg_col2</t>
   </si>
   <si>
-    <t>Line of Therapy 'Automation_1' is not supported</t>
-  </si>
-  <si>
-    <t>Line of Therapy 'Automation_2' is not supported</t>
-  </si>
-  <si>
     <t>Test - Test</t>
+  </si>
+  <si>
+    <t>Population filter 2 'Automation_1' is not supported</t>
+  </si>
+  <si>
+    <t>Population filter 2 'Automation_2' is not supported</t>
   </si>
 </sst>
 </file>
@@ -453,19 +453,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -476,25 +476,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -505,30 +505,33 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -539,49 +542,46 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>59</v>
-      </c>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Testdata/LineOfTherapyPage_Data_Staging.xlsx
+++ b/Testdata/LineOfTherapyPage_Data_Staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA2C809-BE47-4389-9879-2742B5ABBBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFC998-ABDD-486E-8FE6-E649A7FB811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Population_name</t>
-  </si>
-  <si>
     <t>pop1</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Population filter 2 'Automation_2' is not supported</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -485,104 +485,104 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LineOfTherapyPage_Data_Staging.xlsx
+++ b/Testdata/LineOfTherapyPage_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFC998-ABDD-486E-8FE6-E649A7FB811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3266408-182B-4D07-BA5B-BE9769611F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -91,33 +91,12 @@
     <t>Expected_ui_elements</t>
   </si>
   <si>
-    <t>You can view all, create new and edit or delete existing Line of Therapy from here</t>
-  </si>
-  <si>
-    <t>Manage Line of Therapy</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\LineOfTherapy\Staging_Env\Test dataset - LineofTherapy_1.xlsx</t>
-  </si>
-  <si>
-    <t>Test dataset - LineofTherapy_1.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\LineOfTherapy\Staging_Env\Test dataset - LineofTherapy_2.xlsx</t>
-  </si>
-  <si>
-    <t>Test dataset - LineofTherapy_2.xlsx</t>
-  </si>
-  <si>
     <t>error_msg_col1</t>
   </si>
   <si>
     <t>error_msg_col2</t>
   </si>
   <si>
-    <t>Test - Test</t>
-  </si>
-  <si>
     <t>Population filter 2 'Automation_1' is not supported</t>
   </si>
   <si>
@@ -125,6 +104,27 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>NewImportLogic_2 - Test_Automation_2</t>
+  </si>
+  <si>
+    <t>Success Sheet - LineofTherapy_1.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\LineOfTherapy\Testing_Env\Success Sheet - LineofTherapy_1.xlsx</t>
+  </si>
+  <si>
+    <t>Manage Population filter 2</t>
+  </si>
+  <si>
+    <t>You can view all, create new and edit or delete existing Population filter 2 from here</t>
+  </si>
+  <si>
+    <t>Success Sheet - LineofTherapy_2.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\LineOfTherapy\Testing_Env\Success Sheet - LineofTherapy_2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -505,62 +505,68 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
@@ -571,18 +577,68 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
